--- a/1850_or_not.xlsx
+++ b/1850_or_not.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/class_work/ttp_O30_warmups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFEE243-5C7E-7A48-AE00-A30733AE5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97DE7D-7F83-0749-A460-A1D96BCA3700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{129CD437-9E78-E44F-BC7D-5285C792B461}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">-- 4) The CEO of your company announced the other week that the company's long run average sales per order is </t>
   </si>
@@ -73,13 +73,58 @@
   </si>
   <si>
     <t>is this a one or two tail test?</t>
+  </si>
+  <si>
+    <t>sample (n) =</t>
+  </si>
+  <si>
+    <t>sample mean/test statistic (x-bar)  =</t>
+  </si>
+  <si>
+    <t>population standard deviation (o) =</t>
+  </si>
+  <si>
+    <t>significance (alpha) =</t>
+  </si>
+  <si>
+    <t>hypothesized true value/population mean (mu) =</t>
+  </si>
+  <si>
+    <t>Null Hypothesis H(0)</t>
+  </si>
+  <si>
+    <t>Alternative Hypothesis H(A)</t>
+  </si>
+  <si>
+    <t>Standard Error:</t>
+  </si>
+  <si>
+    <t>o(sample) =</t>
+  </si>
+  <si>
+    <t>(Upper) Threshold</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>P-Value &gt; Alpha?</t>
+  </si>
+  <si>
+    <t>&gt;= 1850</t>
+  </si>
+  <si>
+    <t>&lt; 1850</t>
+  </si>
+  <si>
+    <t>Conclusion: We fail to reject the null hypothesis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,13 +139,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,15 +492,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D3C1F8-990A-F74E-B7AC-2EC9E31EC6D0}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="52.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -513,6 +575,109 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1745.8581999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <f>2129.48827</f>
+        <v>2129.4882699999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B20/SQRT(B18)</f>
+        <v>73.915616916709979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4">
+        <f>_xlfn.NORM.INV((1-B21), B22, B28)</f>
+        <v>1971.580370573806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4">
+        <f>_xlfn.NORM.DIST(B19, B22, B28,TRUE)</f>
+        <v>7.9428194187828371E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="b">
+        <f>B32&gt;B21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
